--- a/public/RPKC.xlsx
+++ b/public/RPKC.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -29,6 +29,9 @@
     <t>penyelenggara</t>
   </si>
   <si>
+    <t>notes</t>
+  </si>
+  <si>
     <t>PUJI LESTARI</t>
   </si>
   <si>
@@ -36,6 +39,9 @@
   </si>
   <si>
     <t>HCO</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>ARI GUNAWAN GUNAIDI</t>
@@ -410,7 +416,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,7 +424,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,201 +437,246 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/RPKC.xlsx
+++ b/public/RPKC.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -41,13 +41,16 @@
     <t>HCO</t>
   </si>
   <si>
+    <t>berubah pelatihan</t>
+  </si>
+  <si>
+    <t>ARI GUNAWAN GUNAIDI</t>
+  </si>
+  <si>
+    <t>HRD</t>
+  </si>
+  <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>ARI GUNAWAN GUNAIDI</t>
-  </si>
-  <si>
-    <t>HRD</t>
   </si>
   <si>
     <t>UI/UX Design Training</t>
@@ -472,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -483,13 +486,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -500,13 +503,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -517,13 +520,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -531,16 +534,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -551,13 +554,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -565,16 +568,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -582,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -591,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -599,7 +602,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -608,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -616,7 +619,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -625,7 +628,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -633,16 +636,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -650,16 +653,16 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -667,16 +670,16 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/public/RPKC.xlsx
+++ b/public/RPKC.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -32,7 +32,7 @@
     <t>notes</t>
   </si>
   <si>
-    <t>PUJI LESTARI</t>
+    <t>NURMALA</t>
   </si>
   <si>
     <t>Design Thinking</t>
@@ -41,15 +41,6 @@
     <t>HCO</t>
   </si>
   <si>
-    <t>berubah pelatihan</t>
-  </si>
-  <si>
-    <t>ARI GUNAWAN GUNAIDI</t>
-  </si>
-  <si>
-    <t>HRD</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -59,31 +50,37 @@
     <t>Design Business Thinking</t>
   </si>
   <si>
+    <t>KUA LIMA 1</t>
+  </si>
+  <si>
+    <t>PARAMETRIC RELEASE</t>
+  </si>
+  <si>
+    <t>PRISCILLA ASHWINI</t>
+  </si>
+  <si>
+    <t>INVESTIGATION SKILL</t>
+  </si>
+  <si>
     <t>Design Web Training</t>
   </si>
   <si>
-    <t>Public</t>
-  </si>
-  <si>
-    <t>MAMAT SULAIMAN</t>
-  </si>
-  <si>
-    <t>KUA LIMA 1</t>
-  </si>
-  <si>
-    <t>DAVID STEFAN HASIBUAN</t>
+    <t>BASIC STATISTIC</t>
+  </si>
+  <si>
+    <t>ARISTHON DAVID</t>
+  </si>
+  <si>
+    <t>BASIC DATABASE</t>
   </si>
   <si>
     <t>QUALITY DESIGN</t>
   </si>
   <si>
-    <t>SRI PARYANTI</t>
-  </si>
-  <si>
-    <t>YESIANILIANTY</t>
-  </si>
-  <si>
-    <t>AGNES NOVITA SARI</t>
+    <t>SITI AMINAH</t>
+  </si>
+  <si>
+    <t>LIAN FEE LIENG</t>
   </si>
 </sst>
 </file>
@@ -91,9 +88,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -116,8 +122,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -419,28 +428,28 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -466,16 +475,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -483,16 +492,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -500,16 +509,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -517,16 +526,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -534,16 +543,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -551,16 +560,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -568,16 +577,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -585,58 +594,58 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -645,41 +654,313 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
         <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
